--- a/uploads/ex0orrtss.xlsx
+++ b/uploads/ex0orrtss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Sheet 1" state="show" r:id="rId4"/>
+    <sheet sheetId="1" name="Sheet 1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -31,22 +31,58 @@
     <t>001</t>
   </si>
   <si>
+    <t>Dra. Arsiti, M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 AJIBARANG</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>TRISNATUN, M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 AJIBARANG</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>HERI SAPTONO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 BANYUMAS</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>ANTONIUS EDI PRIYONO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 BANYUMAS</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
     <t>Dra. Rr. Imro'atun Istikhomah</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 BANYUMAS</t>
-  </si>
-  <si>
-    <t>005</t>
+    <t>SMP NEGERI 3 BANYUMAS</t>
+  </si>
+  <si>
+    <t>006</t>
   </si>
   <si>
     <t>NGATMINAH, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3 BANYUMAS</t>
-  </si>
-  <si>
-    <t>006</t>
+    <t>SMP NEGERI 4 BANYUMAS</t>
+  </si>
+  <si>
+    <t>007</t>
   </si>
   <si>
     <t>DWI RIYANI DARMA SETIANINGSIH, S.Pd.</t>
@@ -58,16 +94,16 @@
     <t>008</t>
   </si>
   <si>
-    <t>Dra. Arsiti, M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 AJIBARANG</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>ANTONIUS EDI PRIYONO, S.Pd.</t>
+    <t>Drs. Herry Nuryanto Widodo</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 BATURRADEN</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Tri Agus Hariyatno, S.Pd.</t>
   </si>
   <si>
     <t>SMP NEGERI 1 CILONGOK</t>
@@ -76,441 +112,405 @@
     <t>010</t>
   </si>
   <si>
+    <t>SUPARJO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 CILONGOK</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
     <t>HARTOYO, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 4 BANYUMAS</t>
-  </si>
-  <si>
-    <t>007</t>
+    <t>SMP NEGERI 1 GUMELAR</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>SAIRAN, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 GUMELAR</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>SETIYOWATI, S.Pd., M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 JATILAWANG</t>
+  </si>
+  <si>
+    <t>014</t>
   </si>
   <si>
     <t>DJOKO WIRYONO, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 1 BANYUMAS</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>SAIRAN, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 3 AJIBARANG</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>HERI SAPTONO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 BATURRADEN</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>SETIYOWATI, S.Pd., M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 CILONGOK</t>
-  </si>
-  <si>
-    <t>011</t>
+    <t>SMP NEGERI 2 JATILAWANG</t>
+  </si>
+  <si>
+    <t>015</t>
   </si>
   <si>
     <t>Agus Triwahyono, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 1 GUMELAR</t>
-  </si>
-  <si>
-    <t>012</t>
+    <t>SMP NEGERI 1 KALIBAGOR</t>
+  </si>
+  <si>
+    <t>016</t>
   </si>
   <si>
     <t>Purwanto Ali Suryanto, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 GUMELAR</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>Drs. Herry Nuryanto Widodo</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 JATILAWANG</t>
-  </si>
-  <si>
-    <t>014</t>
+    <t>SMP NEGERI 3 KALIBAGOR</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Drs. M. ASYROFI</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 KALIBAGOR</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Drs. DWI CIPTO SETYANTO, M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 KARANGLEWAS</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Agus Subagyo, S.Pd, MM.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 KARANGLEWAS</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>ALFA KRISTANTI, M.Pd</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 KEBASEN</t>
+  </si>
+  <si>
+    <t>021</t>
   </si>
   <si>
     <t>SURYATNO,S.Pd., M.Si.</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 JATILAWANG</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>SUPARJO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 KALIBAGOR</t>
-  </si>
-  <si>
-    <t>016</t>
+    <t>SMP NEGERI 2 KEBASEN</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Endah Kurniasih, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 KEBASEN</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>TITI YULIANTI, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>024</t>
   </si>
   <si>
     <t>RATMOKO, S.Pd, M.M.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3 KALIBAGOR</t>
-  </si>
-  <si>
-    <t>017</t>
+    <t>SMP NEGERI 2 KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>025</t>
   </si>
   <si>
     <t>SITI KHUSNAH,S.Pd</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 KALIBAGOR</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>Agus Subagyo, S.Pd, MM.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 KARANGLEWAS</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>Endah Kurniasih, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 KARANGLEWAS</t>
-  </si>
-  <si>
-    <t>020</t>
+    <t>SMP NEGERI 1 KEMBARAN</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>M. Tejowibowo, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 KEMBARAN</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Drs. N. FREDY FRANMOKO, M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>028</t>
   </si>
   <si>
     <t>R. Bambang Prihananto, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 1 KEBASEN</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>Tri Agus Hariyatno, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 KEBASEN</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>Drs. N. FREDY FRANMOKO, M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 3 KEBASEN</t>
-  </si>
-  <si>
-    <t>023</t>
+    <t>SMP NEGERI 2 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>ANTON, S. Pd. M. Hum.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 LUMBIR</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>SUTARJO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 LUMBIR</t>
+  </si>
+  <si>
+    <t>031</t>
   </si>
   <si>
     <t>MUTAKIN, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 1 KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>TITI YULIANTI, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>025</t>
+    <t>SMP NEGERI 1 PATIKRAJA</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Suyatno, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 PATIKRAJA</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>AMIR DAHLAN, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 PEKUNCEN</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>SIKKO VARIANTO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 PEKUNCEN</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>MUZAENI, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 PEKUNCEN</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>WELLY HARTANTO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 PURWOJATI</t>
+  </si>
+  <si>
+    <t>037</t>
   </si>
   <si>
     <t>Agus Suwarno, S.Pd</t>
   </si>
   <si>
-    <t>SMP NEGERI 1 KEMBARAN</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>Drs. M. ASYROFI</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 KEMBARAN</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>WELLY HARTANTO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>SIKKO VARIANTO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>Suyatno, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 LUMBIR</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>ANTON, S. Pd. M. Hum.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 LUMBIR</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>AMIR DAHLAN, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 PATIKRAJA</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>SUTARJO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 PATIKRAJA</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>TRISNATUN, M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 PEKUNCEN</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>M. Tejowibowo, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 PEKUNCEN</t>
-  </si>
-  <si>
-    <t>035</t>
+    <t>SMP NEGERI 2 PURWOJATI</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>SUYATNO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>Suhriyanto,S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 2 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Drs. M. Djohar, M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>DIBYO YUWONO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 4 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>042</t>
   </si>
   <si>
     <t>Drs. Budi Handoyo, M.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3 PEKUNCEN</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>ALFA KRISTANTI, M.Pd</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 PURWOJATI</t>
-  </si>
-  <si>
-    <t>037</t>
+    <t>SMP NEGERI 5 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>043</t>
   </si>
   <si>
     <t>SUGENG KAHANA, S.Pd., M.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 PURWOJATI</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>MUZAENI, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>039</t>
+    <t>SMP NEGERI 6 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Sri Indarsih, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 7 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>HARI SRI RAHARJO, S.Pd.,M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 8 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>SLAMET, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 9 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>IBNU TAVIP MARTAPA, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 1 RAWALO</t>
+  </si>
+  <si>
+    <t>048</t>
   </si>
   <si>
     <t>SUPRIYANTO, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>040</t>
+    <t>SMP NEGERI 2 RAWALO</t>
+  </si>
+  <si>
+    <t>049</t>
   </si>
   <si>
     <t>Sri Mardiyani, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>041</t>
+    <t>SMP NEGERI 1 SOKARAJA</t>
+  </si>
+  <si>
+    <t>050</t>
   </si>
   <si>
     <t>BAMBANG GUNAWAN, S.Pd., S.IP.</t>
   </si>
   <si>
-    <t>SMP NEGERI 4 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>042</t>
+    <t>SMP NEGERI 2 SOKARAJA</t>
+  </si>
+  <si>
+    <t>051</t>
   </si>
   <si>
     <t>Bayu Heryanto, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 5 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>043</t>
+    <t>SMP NEGERI 3 SOKARAJA</t>
+  </si>
+  <si>
+    <t>052</t>
   </si>
   <si>
     <t>Maryono, M.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 6 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>Suhriyanto,S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 7 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>HARI SRI RAHARJO, S.Pd.,M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 8 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>Drs. M. Djohar, M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 9 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>Drs. DWI CIPTO SETYANTO, M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 RAWALO</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>SUYATNO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 RAWALO</t>
-  </si>
-  <si>
-    <t>049</t>
+    <t>SMP NEGERI 1 SOMAGEDE</t>
+  </si>
+  <si>
+    <t>053</t>
   </si>
   <si>
     <t>SUSILO, S.Pd., M.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 1 SOKARAJA</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>Sri Indarsih, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 2 SOKARAJA</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>IBNU TAVIP MARTAPA, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 3 SOKARAJA</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>DIBYO YUWONO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 1 SOMAGEDE</t>
-  </si>
-  <si>
-    <t>053</t>
+    <t>SMP NEGERI 2 SOMAGEDE</t>
+  </si>
+  <si>
+    <t>054</t>
   </si>
   <si>
     <t>SUDRAJAT DWI PRIHANTO, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 2 SOMAGEDE</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>SLAMET, S.Pd</t>
-  </si>
-  <si>
     <t>SMP NEGERI 1 SUMBANG</t>
   </si>
   <si>
@@ -589,78 +589,78 @@
     <t>063</t>
   </si>
   <si>
+    <t>Soenarko, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3  WANGON</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>Tri Broto Sulistyo, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 LUMBIR</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>AGUS SETIADI, S.Pd., M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 GUMELAR</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>SUTOMO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 3 KARANGLEWAS</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>ARI DRIYANINGSIH, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP NEGERI 4 KALIBAGOR</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
     <t>SUJOTO, S.Pd., MM.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3  WANGON</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>Soenarko, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 3 LUMBIR</t>
-  </si>
-  <si>
-    <t>065</t>
+    <t>SMP NEGERI 4 SUMBANG</t>
+  </si>
+  <si>
+    <t>070</t>
   </si>
   <si>
     <t>Dra. Wiwi Parluki, M.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3 KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>ARI DRIYANINGSIH, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 3 GUMELAR</t>
-  </si>
-  <si>
-    <t>067</t>
+    <t>SMP NEGERI 4 KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>071</t>
   </si>
   <si>
     <t>RINA MUHARTI, S.Pd.</t>
   </si>
   <si>
-    <t>SMP NEGERI 3 KARANGLEWAS</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>SUTOMO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 4 KALIBAGOR</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>AGUS SETIADI, S.Pd., M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 4 SUMBANG</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>SMP NEGERI 4 KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>Tri Broto Sulistyo, S.Pd.</t>
-  </si>
-  <si>
     <t>SMP TERBUKA 1 CILONGOK</t>
   </si>
   <si>
@@ -700,72 +700,72 @@
     <t>104</t>
   </si>
   <si>
+    <t>Ngatminah, S.Pd.</t>
+  </si>
+  <si>
     <t>SMP TERBUKA 2 AJIBARANG</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
+    <t>SMP TERBUKA 2 CILONGOK</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>SMP TERBUKA 2 PEKUNCEN</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>SMP TERBUKA 2 SUMBANG</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>SMP TERBUKA BANYUMAS</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Drs. Daryadi</t>
+  </si>
+  <si>
+    <t>SMP TERBUKA BATURRADEN</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>SMP TERBUKA JATILAWANG</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>SMP TERBUKA KARANGLEWAS</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>SLAMET, S.Pd.</t>
   </si>
   <si>
-    <t>SMP TERBUKA 2 CILONGOK</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>SMP TERBUKA 2 PEKUNCEN</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>SMP TERBUKA 2 SUMBANG</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>SMP TERBUKA BANYUMAS</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>SMP TERBUKA BATURRADEN</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Drs. Daryadi</t>
-  </si>
-  <si>
-    <t>SMP TERBUKA JATILAWANG</t>
-  </si>
-  <si>
-    <t>112</t>
+    <t>SMP TERBUKA LUMBIR</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>MUZAENI, S.Pd</t>
   </si>
   <si>
-    <t>SMP TERBUKA KARANGLEWAS</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Ngatminah, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP TERBUKA LUMBIR</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>SMP TERBUKA SUMPIUH</t>
   </si>
   <si>
@@ -790,243 +790,243 @@
     <t>200</t>
   </si>
   <si>
+    <t>Sudrajat, S.Sos.</t>
+  </si>
+  <si>
+    <t>SMP BRUDERAN PURWOKERTO</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>DIAN FITRIANA, M.Pd</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 1 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>BAMBANG MUHARWO, S.Pt., MM.</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 10 PEKUNCEN</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Djamali Anshor, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 3 KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Syamsul, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 5 WANGON</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Hanggoro Prasetyo, S.TP., S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 7 GUMELAR</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Suherman, S.Ag.,S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 8 RAWALO</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>LULU KURNIANINGSIH, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP DIPONEGORO 9 TAMBAK</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>Siti Arbiyah, S.Pd</t>
   </si>
   <si>
-    <t>SMP BRUDERAN PURWOKERTO</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Sudrajat, S.Sos.</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 1 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Suherman, S.Ag.,S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 10 PEKUNCEN</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>LULU KURNIANINGSIH, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 3 KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>BAMBANG MUHARWO, S.Pt., MM.</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 5 WANGON</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Djamali Anshor, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 7 GUMELAR</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Syamsul, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 8 RAWALO</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>DIAN FITRIANA, M.Pd</t>
-  </si>
-  <si>
-    <t>SMP DIPONEGORO 9 TAMBAK</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Hanggoro Prasetyo, S.TP., S.Pd.</t>
-  </si>
-  <si>
     <t>SMP GIRIPURO SUMPIUH</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
+    <t>ISTJI AGUSTINI WIDODOWATI, S.Pd.Ing.</t>
+  </si>
+  <si>
+    <t>SMP GUNUNGJATI 1 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Sugiri, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP GUNUNGJATI 2 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>MUSRIFAH, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP GUNUNGJATI KEMBARAN</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>PUDJI SLAMET SARYONO, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP KARYA BAKTI JATILAWANG</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>AHMAD SAFUDDIN,S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP KRISTEN 1 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>HERMAN YOSEPH DADIYANA, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP MAARIF  NU 1 AJIBARANG</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>TARWAN, S. Pd.</t>
+  </si>
+  <si>
+    <t>SMP MAARIF NU 1 CILONGOK</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>HIDAYATULLOH,S.Ag</t>
   </si>
   <si>
-    <t>SMP GUNUNGJATI 1 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>Sugiri, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP GUNUNGJATI 2 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>211</t>
+    <t>SMP MAARIF NU 1 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>217</t>
   </si>
   <si>
     <t>CHADIRIN,S. Pd</t>
   </si>
   <si>
-    <t>SMP GUNUNGJATI KEMBARAN</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>MUSRIFAH, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP KARYA BAKTI JATILAWANG</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>AHMAD SAFUDDIN,S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP KRISTEN 1 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>TARWAN, S. Pd.</t>
-  </si>
-  <si>
-    <t>SMP MAARIF  NU 1 AJIBARANG</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>HERMAN YOSEPH DADIYANA, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP MAARIF NU 1 CILONGOK</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>PUDJI SLAMET SARYONO, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP MAARIF NU 1 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>217</t>
+    <t>SMP MAARIF NU 1 PATIKRAJA</t>
+  </si>
+  <si>
+    <t>218</t>
   </si>
   <si>
     <t>Nurhadi, S.T.</t>
   </si>
   <si>
-    <t>SMP MAARIF NU 1 PATIKRAJA</t>
-  </si>
-  <si>
-    <t>218</t>
+    <t>SMP MA'ARIF NU 01 PEKUNCEN</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Minarni, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP MA'ARIF NU 1 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>SEKHUL, S.HI.</t>
+  </si>
+  <si>
+    <t>SMP MAARIF NU 2 AJIBARANG</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Waluyo, M.Pd.I</t>
+  </si>
+  <si>
+    <t>SMP MAARIF NU 2 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Ari Agung Pramono, S.Th.I, M.Pd.I</t>
+  </si>
+  <si>
+    <t>SMP MA'ARIF NU 02 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>SODIKHUN, S.Ag</t>
+  </si>
+  <si>
+    <t>SMP MA'ARIF NU 03 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>MOH. JANUARI YANTO, S.Pd.Ing</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH KEBASEN</t>
+  </si>
+  <si>
+    <t>225</t>
   </si>
   <si>
     <t>Muslikhatun, S.Pd.</t>
   </si>
   <si>
-    <t>SMP MA'ARIF NU 01 PEKUNCEN</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>Minarni, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP MA'ARIF NU 1 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>MOH. JANUARI YANTO, S.Pd.Ing</t>
-  </si>
-  <si>
-    <t>SMP MAARIF NU 2 AJIBARANG</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>ISTJI AGUSTINI WIDODOWATI, S.Pd.Ing.</t>
-  </si>
-  <si>
-    <t>SMP MAARIF NU 2 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>222</t>
+    <t>SMP MUHAMMADIYAH  KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>226</t>
   </si>
   <si>
     <t>NAZAR NURDIN,S.E</t>
   </si>
   <si>
-    <t>SMP MA'ARIF NU 02 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Waluyo, M.Pd.I</t>
-  </si>
-  <si>
-    <t>SMP MA'ARIF NU 03 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Ari Agung Pramono, S.Th.I, M.Pd.I</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH KEBASEN</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>SEKHUL, S.HI.</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH  KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>SODIKHUN, S.Ag</t>
-  </si>
-  <si>
     <t>SMP MUHAMMADIYAH 1 AJIBARANG</t>
   </si>
   <si>
@@ -1042,225 +1042,225 @@
     <t>228</t>
   </si>
   <si>
+    <t>Siti Malikhatun, S.Ag.</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 1 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Siti Ngatiatun, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 1 WANGON</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Suwarni, S.Pd.</t>
   </si>
   <si>
-    <t>SMP MUHAMMADIYAH 1 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>229</t>
+    <t>SMP MUHAMMADIYAH 2 KARANGLEWAS</t>
+  </si>
+  <si>
+    <t>231</t>
   </si>
   <si>
     <t>ENDAH SUSANTI, S.Pd. Bio.</t>
   </si>
   <si>
-    <t>SMP MUHAMMADIYAH 1 WANGON</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Siti Ngatiatun, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH 2 KARANGLEWAS</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Siti Malikhatun, S.Ag.</t>
-  </si>
-  <si>
     <t>SMP MUHAMMADIYAH 2 PURWOKERTO</t>
   </si>
   <si>
     <t>232</t>
   </si>
   <si>
+    <t>PRIYANTO, S.Pd</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 3 PURWOKERTO</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>H. Sugeng, S.Ag</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH BANYUMAS</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Sudarmanto, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH CILONGOK</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Drs. AGUS MIFTAH</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH JATILAWANG</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>DESTRIYANTO BADRUZZAMAN, S.P.</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH KEMBARAN</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Anis Rodhiyanti, S.HI., S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH KEMRANJEN</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Drs. Suwarno</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH PURWOJATI</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
     <t>TRI MURNIATI, S.Pd.</t>
   </si>
   <si>
-    <t>SMP MUHAMMADIYAH 3 PURWOKERTO</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>PRIYANTO, S.Pd</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH BANYUMAS</t>
-  </si>
-  <si>
-    <t>234</t>
+    <t>SMP MUHAMMADIYAH RAWALO</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Achmad Rosadi, S.Pd.I.</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH SOKARAJA</t>
+  </si>
+  <si>
+    <t>241</t>
   </si>
   <si>
     <t>KHADIR, S.Pd</t>
   </si>
   <si>
-    <t>SMP MUHAMMADIYAH CILONGOK</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>Drs. Suwarno</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH JATILAWANG</t>
-  </si>
-  <si>
-    <t>236</t>
+    <t>SMP MUHAMMADIYAH SUMBANG</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Imam Sugiri, SH.</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH SUMPIUH</t>
+  </si>
+  <si>
+    <t>243</t>
   </si>
   <si>
     <t>UNTUNG TURYANI, S.Pd.</t>
   </si>
   <si>
-    <t>SMP MUHAMMADIYAH KEMBARAN</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Anis Rodhiyanti, S.HI., S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH KEMRANJEN</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>H. Sugeng, S.Ag</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH PURWOJATI</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Achmad Rosadi, S.Pd.I.</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH RAWALO</t>
-  </si>
-  <si>
-    <t>240</t>
+    <t>SMP MUHAMMADIYAH TAMBAK</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>NURUDIN HIDAYAT, S.H</t>
+  </si>
+  <si>
+    <t>SMP PGRI 1 AJIBARANG</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>MULYONO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PGRI 1 SOMAGEDE</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Tekun Wardojo, S.Si.</t>
+  </si>
+  <si>
+    <t>SMP PGRI 2 AJIBARANG</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>BAYUDA ARDIYANTO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PGRI 2 SOMAGEDE</t>
+  </si>
+  <si>
+    <t>248</t>
   </si>
   <si>
     <t>WARTO, S.Pd</t>
   </si>
   <si>
-    <t>SMP MUHAMMADIYAH SOKARAJA</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>DESTRIYANTO BADRUZZAMAN, S.P.</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH SUMBANG</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>BAYUDA ARDIYANTO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH SUMPIUH</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>NURUDIN HIDAYAT, S.H</t>
-  </si>
-  <si>
-    <t>SMP MUHAMMADIYAH TAMBAK</t>
-  </si>
-  <si>
-    <t>244</t>
+    <t>SMP PGRI BATURRADEN</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Hj. Anis Fauziyah, M.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PGRI 1 CILONGOK</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
   <si>
     <t>Sucipto, S.Pd</t>
   </si>
   <si>
-    <t>SMP PGRI 1 AJIBARANG</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>Tekun Wardojo, S.Si.</t>
-  </si>
-  <si>
-    <t>SMP PGRI 1 SOMAGEDE</t>
-  </si>
-  <si>
-    <t>246</t>
+    <t>SMP PGRI GUMELAR</t>
+  </si>
+  <si>
+    <t>251</t>
   </si>
   <si>
     <t>Sujadi, S.Pd.</t>
   </si>
   <si>
-    <t>SMP PGRI 2 AJIBARANG</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>Hj. Anis Fauziyah, M.Pd.</t>
-  </si>
-  <si>
-    <t>SMP PGRI 2 SOMAGEDE</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>Sudarmanto, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP PGRI BATURRADEN</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>Drs. AGUS MIFTAH</t>
-  </si>
-  <si>
-    <t>SMP PGRI 1 CILONGOK</t>
-  </si>
-  <si>
-    <t>250</t>
+    <t>SMP PGRI KALIBAGOR</t>
+  </si>
+  <si>
+    <t>252</t>
   </si>
   <si>
     <t>Sudaryono, S.Pd.</t>
   </si>
   <si>
-    <t>SMP PGRI GUMELAR</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>Imam Sugiri, SH.</t>
-  </si>
-  <si>
-    <t>SMP PGRI KALIBAGOR</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>MULYONO, S.Pd.</t>
-  </si>
-  <si>
     <t>SMP PGRI KEBASEN</t>
   </si>
   <si>
@@ -1294,72 +1294,72 @@
     <t>256</t>
   </si>
   <si>
+    <t>ANANTA NUR AMALIA, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PGRI PURWOKERTO</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>wahyu pamungkas,s.pd</t>
+  </si>
+  <si>
+    <t>SMP PGRI SUMBANG</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Drs. SUGIARTO</t>
+  </si>
+  <si>
+    <t>SMP PGRI TAMBAK</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Tri Hartati, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PGRI WANGON</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Imam Hidayat, S.IP., S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PANCASILA JATILAWANG</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
     <t>SUPAR, S.Pd.</t>
   </si>
   <si>
-    <t>SMP PGRI PURWOKERTO</t>
-  </si>
-  <si>
-    <t>257</t>
+    <t>SMP PURNAMA PURWOKERTO</t>
+  </si>
+  <si>
+    <t>262</t>
   </si>
   <si>
     <t>Arif Nuriyatno, SE</t>
   </si>
   <si>
-    <t>SMP PGRI SUMBANG</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>Tri Hartati, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP PGRI TAMBAK</t>
-  </si>
-  <si>
-    <t>259</t>
+    <t>SMP PURNAMA SUMPIUH</t>
+  </si>
+  <si>
+    <t>263</t>
   </si>
   <si>
     <t>SUNARYO, S.Pd.</t>
   </si>
   <si>
-    <t>SMP PGRI WANGON</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>wahyu pamungkas,s.pd</t>
-  </si>
-  <si>
-    <t>SMP PANCASILA JATILAWANG</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>Imam Hidayat, S.IP., S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP PURNAMA PURWOKERTO</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>ANANTA NUR AMALIA, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP PURNAMA SUMPIUH</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>Drs. SUGIARTO</t>
-  </si>
-  <si>
     <t>SMP SALAFIYAH KEMRANJEN</t>
   </si>
   <si>
@@ -1384,90 +1384,90 @@
     <t>266</t>
   </si>
   <si>
+    <t>Mukhsinin, S.Pd.I</t>
+  </si>
+  <si>
+    <t>SMP TAMTAMA KEMRANJEN</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Drs. KATAMSI</t>
+  </si>
+  <si>
+    <t>SMP TRI BHAKTI KEMRANJEN</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>SARTI, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP YPE PATIKRAJA</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>SUDIRAN, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP YOS SUDARSO SOKARAJA</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>SUPARNO, S.Pd.</t>
+  </si>
+  <si>
+    <t>SMP PGRI 2 CILONGOK</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Subagyo, S.H.</t>
+  </si>
+  <si>
+    <t>SMP ISLAM AL FALAH TAMBAK</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
     <t>MOHAMAD FATHULLAH, S.Pd.I.</t>
   </si>
   <si>
-    <t>SMP YPE PATIKRAJA</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>SUPARNO, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP TRI BHAKTI KEMRANJEN</t>
-  </si>
-  <si>
-    <t>268</t>
+    <t>SMP BOARDING SCHOOL PUTRA HARAPAN PURWOKERTO</t>
+  </si>
+  <si>
+    <t>274</t>
   </si>
   <si>
     <t>Abdullah, S.Pt.</t>
   </si>
   <si>
-    <t>SMP TAMTAMA KEMRANJEN</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>SARTI, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP YOS SUDARSO SOKARAJA</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>SUDIRAN, S.Pd.</t>
-  </si>
-  <si>
-    <t>SMP PGRI 2 CILONGOK</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>Mukhsinin, S.Pd.I</t>
-  </si>
-  <si>
-    <t>SMP ISLAM AL FALAH TAMBAK</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>Subagyo, S.H.</t>
-  </si>
-  <si>
-    <t>SMP BOARDING SCHOOL PUTRA HARAPAN PURWOKERTO</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>Drs. KATAMSI</t>
-  </si>
-  <si>
     <t>SMP ALAM AL-AQWIYA</t>
   </si>
   <si>
     <t>275</t>
   </si>
   <si>
+    <t>F. David Ludiranto, M. Hum.</t>
+  </si>
+  <si>
+    <t>SMP NASIONAL 3 BAHASA PUTERA HARAPAN</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
     <t>ZAENURROHMAN</t>
   </si>
   <si>
-    <t>SMP NASIONAL 3 BAHASA PUTERA HARAPAN</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>F. David Ludiranto, M. Hum.</t>
-  </si>
-  <si>
     <t>SMP ISLAM AL FATTAH BANYUMAS</t>
   </si>
   <si>
@@ -1477,6 +1477,51 @@
     <t>Siti Rohanah, A.Md., S.E</t>
   </si>
   <si>
+    <t>SMP ISLAM ANDALUSIA KEBASEN</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>Drs. DAYONO, MM.</t>
+  </si>
+  <si>
+    <t>SMP ISLAM WALISONGO KEMBARAN</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Labibul Mahmud</t>
+  </si>
+  <si>
+    <t>SMP IT HARAPAN BUNDA PURWOKERTO</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>Sudwito, SE., M.Si.</t>
+  </si>
+  <si>
+    <t>SMP MA'HAD DARUSSA'ADAH</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>ARIFINUR, M.Pd.I.</t>
+  </si>
+  <si>
+    <t>MTs NEGERI 1 BANYUMAS</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Drs. Solahuddin, M.M.</t>
+  </si>
+  <si>
     <t>MTs NEGERI 3 BANYUMAS</t>
   </si>
   <si>
@@ -1486,33 +1531,33 @@
     <t>AKHMAD TAUKHID, M.Pd.</t>
   </si>
   <si>
-    <t>MTs NEGERI 1 BANYUMAS</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Drs. Solahuddin, M.M.</t>
-  </si>
-  <si>
-    <t>SMP MA'HAD DARUSSA'ADAH</t>
-  </si>
-  <si>
-    <t>281</t>
+    <t>MTs NEGERI 2 BANYUMAS</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>Mathori, S.Pd., M.M.</t>
+  </si>
+  <si>
+    <t>MTs AL - HIDAYAH PURWOKERTO KARANGSUCI</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Dra. SARTININGSIH</t>
+  </si>
+  <si>
+    <t>MTs AL HIDAYAH PURWOKERTO BARAT</t>
+  </si>
+  <si>
+    <t>701</t>
   </si>
   <si>
     <t>A. ANGGORO ADI, SE.,S.Pd.</t>
   </si>
   <si>
-    <t>MTs AL HIDAYAH PURWOKERTO BARAT</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>ARIFINUR, M.Pd.I.</t>
-  </si>
-  <si>
     <t>MTs AL MASRURIYAH BATURRADEN</t>
   </si>
   <si>
@@ -1522,57 +1567,12 @@
     <t>SUYITNO, S.Ag</t>
   </si>
   <si>
-    <t>SMP ISLAM WALISONGO KEMBARAN</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>Drs. DAYONO, MM.</t>
-  </si>
-  <si>
-    <t>SMP ISLAM ANDALUSIA KEBASEN</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>Mathori, S.Pd., M.M.</t>
-  </si>
-  <si>
-    <t>MTs NEGERI 2 BANYUMAS</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>Labibul Mahmud</t>
-  </si>
-  <si>
     <t>MTs AL-IKHSAN BEJI KEDUNGBANTENG</t>
   </si>
   <si>
     <t>703</t>
   </si>
   <si>
-    <t>Dra. SARTININGSIH</t>
-  </si>
-  <si>
-    <t>SMP IT HARAPAN BUNDA PURWOKERTO</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>Sudwito, SE., M.Si.</t>
-  </si>
-  <si>
-    <t>MTs AL - HIDAYAH PURWOKERTO KARANGSUCI</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
     <t>M. Wahid Hasan, S.Pd.I.</t>
   </si>
   <si>
@@ -1627,54 +1627,54 @@
     <t>709</t>
   </si>
   <si>
+    <t>DJUANDA, M.Pd.I</t>
+  </si>
+  <si>
+    <t>MTs MA'ARIF NU 1 KEBASEN</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
     <t>Sodik, S.Pd.</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 1 KEBASEN</t>
-  </si>
-  <si>
-    <t>710</t>
+    <t>MTs MA'ARIF NU 1 KEDUNGBANTENG</t>
+  </si>
+  <si>
+    <t>711</t>
   </si>
   <si>
     <t>ZIDNI ROSYADI, S.Pd.I.</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 1 KEDUNGBANTENG</t>
-  </si>
-  <si>
-    <t>711</t>
+    <t>MTs MA'ARIF NU 1 KEMBARAN</t>
+  </si>
+  <si>
+    <t>712</t>
   </si>
   <si>
     <t>H. MUNIR SARBINI, S.Pd.I.</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 1 KEMBARAN</t>
-  </si>
-  <si>
-    <t>712</t>
+    <t>MTs MA'ARIF NU 1 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>713</t>
   </si>
   <si>
     <t>Prayitno, S.Ag</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 1 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>713</t>
+    <t>MTs MA'ARIF NU 1 LUMBIR</t>
+  </si>
+  <si>
+    <t>714</t>
   </si>
   <si>
     <t>H. MUSYADDAD BIKRY NUR, SH. M.Si</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 1 LUMBIR</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>DJUANDA, M.Pd.I</t>
-  </si>
-  <si>
     <t>MTs MA'ARIF NU 1 PATIKRAJA</t>
   </si>
   <si>
@@ -1726,45 +1726,45 @@
     <t>720</t>
   </si>
   <si>
+    <t>Taufik Nurhidayat, S.Pd.I</t>
+  </si>
+  <si>
+    <t>MTS MA'ARIF NU 1 SUMBANG</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>Mustofa, S.Pd.I.</t>
+  </si>
+  <si>
+    <t>MTs MA'ARIF NU 1 SUMPIUH</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
     <t>Drs. Mahbub Iskandar</t>
   </si>
   <si>
-    <t>MTS MA'ARIF NU 1 SUMBANG</t>
-  </si>
-  <si>
-    <t>721</t>
-  </si>
-  <si>
-    <t>Taufik Nurhidayat, S.Pd.I</t>
-  </si>
-  <si>
-    <t>MTs MA'ARIF NU 1 SUMPIUH</t>
-  </si>
-  <si>
-    <t>722</t>
+    <t>MTs MA'ARIF NU 1 TAMBAK</t>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>AHLAN, S.Ag.</t>
+  </si>
+  <si>
+    <t>MTS MA'ARIF NU 1 WANGON</t>
+  </si>
+  <si>
+    <t>724</t>
   </si>
   <si>
     <t>Robani, S.H.I.</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 1 TAMBAK</t>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
-    <t>Mustofa, S.Pd.I.</t>
-  </si>
-  <si>
-    <t>MTS MA'ARIF NU 1 WANGON</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>AHLAN, S.Ag.</t>
-  </si>
-  <si>
     <t>MTS MA'ARIF NU 2 CILONGOK</t>
   </si>
   <si>
@@ -1798,99 +1798,99 @@
     <t>728</t>
   </si>
   <si>
+    <t>Drs. WARSUN</t>
+  </si>
+  <si>
+    <t>MTs MA'ARIF NU 4 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
     <t>MUHAMAD FATONI, S.H.I.</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 4 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>729</t>
+    <t>MTs MA'ARIF NU 3 KEMRANJEN</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>Vian Maulani, S.Pd.</t>
+  </si>
+  <si>
+    <t>MTS MIFTAHUL HUDA RAWALO</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>DARSUN, S.Pd</t>
+  </si>
+  <si>
+    <t>MTs MUHAMMADIYAH PATIKRAJA</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>H. Khanan Masykur, S.Sos. M.Si.</t>
+  </si>
+  <si>
+    <t>MTs MUHAMMADIYAH PEKUNCEN</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>Atik Restusari, S.Pd, M.Pd.</t>
+  </si>
+  <si>
+    <t>MTs MUHAMMADIYAH PURWOKERTO</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>Dra. Rasiwen</t>
+  </si>
+  <si>
+    <t>MTs MUHAMMADIYAH SIRAU KEMRANJEN</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>AHMAD RIFA'I, S.Ag. M.Pd.I.</t>
+  </si>
+  <si>
+    <t>MTS MUHAMMADIYAH WANGON</t>
+  </si>
+  <si>
+    <t>736</t>
   </si>
   <si>
     <t>Imam Sugiarto, S.Pd.I</t>
   </si>
   <si>
-    <t>MTs MA'ARIF NU 3 KEMRANJEN</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>DARSUN, S.Pd</t>
-  </si>
-  <si>
-    <t>MTS MIFTAHUL HUDA RAWALO</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>H. Khanan Masykur, S.Sos. M.Si.</t>
-  </si>
-  <si>
-    <t>MTs MUHAMMADIYAH PATIKRAJA</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>Vian Maulani, S.Pd.</t>
-  </si>
-  <si>
-    <t>MTs MUHAMMADIYAH PEKUNCEN</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>Atik Restusari, S.Pd, M.Pd.</t>
-  </si>
-  <si>
-    <t>MTs MUHAMMADIYAH PURWOKERTO</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>Dra. Rasiwen</t>
-  </si>
-  <si>
-    <t>MTs MUHAMMADIYAH SIRAU KEMRANJEN</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>AHMAD RIFA'I, S.Ag. M.Pd.I.</t>
-  </si>
-  <si>
-    <t>MTS MUHAMMADIYAH WANGON</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>Drs. WARSUN</t>
-  </si>
-  <si>
     <t>MTs NAHDLOTUT TALAMIDZ TAMBAK</t>
   </si>
   <si>
     <t>737</t>
   </si>
   <si>
+    <t>Drs. H. Muksonudin, M.Pd.</t>
+  </si>
+  <si>
+    <t>MTs PPPI BANYUMAS</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
     <t>Nggolimah, S.Pd.</t>
   </si>
   <si>
-    <t>MTs PPPI BANYUMAS</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>Drs. H. Muksonudin, M.Pd.</t>
-  </si>
-  <si>
     <t>MTS BAITUL MUSLIM KALIBAGOR</t>
   </si>
   <si>
@@ -1906,16 +1906,16 @@
     <t>740</t>
   </si>
   <si>
+    <t>Syarif Hidayat, S.Ag.</t>
+  </si>
+  <si>
+    <t>MTs SATU ATAP RAUDHOTUT THOLIBIN</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
     <t>DR.JUMAIL ALI SYAMSUDIN, S.HI, M.Pd.I</t>
-  </si>
-  <si>
-    <t>MTs SATU ATAP RAUDHOTUT THOLIBIN</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>Syarif Hidayat, S.Ag.</t>
   </si>
   <si>
     <t>MTs SATU ATAP HIDAYATUL MUBTADI'IN</t>
@@ -1967,7 +1967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -3278,7 +3278,7 @@
         <v>197</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,13 +3286,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,13 +3300,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,13 +3314,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3342,13 +3342,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
         <v>220</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,7 +3432,7 @@
         <v>228</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3440,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>233</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>235</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>239</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3510,13 +3510,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>244</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,13 +3538,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,13 +3552,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
